--- a/biology/Botanique/Neonemataceae/Neonemataceae.xlsx
+++ b/biology/Botanique/Neonemataceae/Neonemataceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Neonemataceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Xanthophyceae et de l’ordre des Tribonematales.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Neonema, composé du préfixe neo-, nouveau, et du grec νήμα / nema, fil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Neonema, composé du préfixe neo-, nouveau, et du grec νήμα / nema, fil.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Neonemataceae a été créée en 1977 par le botaniste tchécoslovaque Hanuš Ettl (d) (1931-1997)[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Neonemataceae a été créée en 1977 par le botaniste tchécoslovaque Hanuš Ettl (d) (1931-1997),.
 </t>
         </is>
       </c>
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,9 +617,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (19 avril 2022)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (19 avril 2022) :
 Chadefaudiothrix Bourrelly, 1957
 Neonema Pascher, 1925</t>
         </is>
@@ -631,7 +651,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(de) Hanuš Ettl, « Taxonomische Bemerkungen zu den Xanthophyceen », Nova Hedwigia, Allemagne, vol. 28,‎ 1977, p. 555-568 (ISSN 0029-5035).</t>
         </is>
